--- a/文档/测试工作相关/IT端到端测试相关/测试内容相关/2019/20191209/196110130_专线宽带测试验证结果/196110130_专线宽带测试验证结果.xlsx
+++ b/文档/测试工作相关/IT端到端测试相关/测试内容相关/2019/20191209/196110130_专线宽带测试验证结果/196110130_专线宽带测试验证结果.xlsx
@@ -14,7 +14,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'BUG汇总 '!$A$1:$J$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">测试案例!$I$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">测试案例!$H$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">测试概览!$A$1:$H$4</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="45">
   <si>
     <t>序号</t>
   </si>
@@ -82,9 +82,6 @@
   </si>
   <si>
     <t>bug状态</t>
-  </si>
-  <si>
-    <t>张轶晟</t>
   </si>
   <si>
     <t>1.登陆新CRM系统使用已有资产受理专线宽带移机单，修改地址后订单结算后提交。
@@ -1089,10 +1086,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1103,15 +1100,14 @@
     <col min="4" max="4" width="35.75" style="4" customWidth="1"/>
     <col min="5" max="5" width="33" style="4" customWidth="1"/>
     <col min="6" max="6" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.125" customWidth="1"/>
-    <col min="8" max="8" width="22.75" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.625" customWidth="1"/>
-    <col min="10" max="10" width="21.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.5" customWidth="1"/>
-    <col min="12" max="12" width="11.625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.625" customWidth="1"/>
+    <col min="9" max="9" width="21.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5" customWidth="1"/>
+    <col min="11" max="11" width="11.625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="9" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" s="9" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1130,26 +1126,23 @@
       <c r="F1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="11" t="s">
+      <c r="G1" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="H1" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="I1" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="J1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="81" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" ht="81" x14ac:dyDescent="0.15">
       <c r="A2" s="13">
         <v>5</v>
       </c>
@@ -1158,69 +1151,63 @@
         <v>10</v>
       </c>
       <c r="D2" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="14" t="s">
         <v>29</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>30</v>
       </c>
       <c r="F2" s="26">
         <v>43808.404953703706</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="I2" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="J2" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="J2" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="K2" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="L2" s="14" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="K2" s="14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A3" s="13">
         <v>7</v>
       </c>
       <c r="B3" s="28"/>
       <c r="C3" s="30"/>
       <c r="D3" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F3" s="26">
         <v>43808.471168981479</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="H3" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="I3" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="J3" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="K3" s="13" t="s">
+      <c r="I3" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="J3" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="K3" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="L3" s="14" t="s">
-        <v>45</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="I1"/>
+  <autoFilter ref="H1"/>
   <mergeCells count="2">
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
@@ -1246,18 +1233,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A2" s="31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
@@ -1371,7 +1358,7 @@
     <row r="30" spans="1:2" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A30" s="31"/>
       <c r="B30" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.15">
@@ -1416,10 +1403,10 @@
     </row>
     <row r="41" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A41" s="31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B41" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.15">
@@ -1541,7 +1528,7 @@
     <row r="71" spans="1:2" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A71" s="31"/>
       <c r="B71" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.15">
@@ -1615,7 +1602,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>1</v>
@@ -1624,22 +1611,22 @@
         <v>15</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F1" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="H1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="I1" s="7" t="s">
         <v>26</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>27</v>
       </c>
       <c r="J1"/>
     </row>
